--- a/xlsx/战争_intext.xlsx
+++ b/xlsx/战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="779">
   <si>
     <t>战争</t>
   </si>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%B8%E8%BB%8D</t>
   </si>
   <si>
-    <t>陸軍</t>
+    <t>陆军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B5%B7%E6%88%98</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>太空戰爭</t>
+    <t>太空战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%A0%B4</t>
   </si>
   <si>
-    <t>戰場</t>
+    <t>战场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%92%E5%B8%A6</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E8%B7%AF%E6%88%B0</t>
   </si>
   <si>
-    <t>網路戰</t>
+    <t>网路战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E6%BC%A0</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%8E%E9%8E%AE%E6%88%B0</t>
   </si>
   <si>
-    <t>城鎮戰</t>
+    <t>城镇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E5%99%A8</t>
@@ -131,7 +131,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A8%8E%E5%85%B5</t>
   </si>
   <si>
-    <t>騎兵</t>
+    <t>骑兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E5%85%B5</t>
@@ -149,13 +149,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%82%98%E5%85%B5</t>
   </si>
   <si>
-    <t>傘兵</t>
+    <t>伞兵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E6%88%B0%E9%AC%A5%E8%BB%8A%E8%BC%9B</t>
   </si>
   <si>
-    <t>裝甲戰鬥車輛</t>
+    <t>装甲战斗车辆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AE</t>
@@ -167,19 +167,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E5%BD%88</t>
   </si>
   <si>
-    <t>飛彈</t>
+    <t>飞弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A3%9D%E7%94%B2%E9%A8%8E%E5%85%B5%E5%9C%98</t>
   </si>
   <si>
-    <t>裝甲騎兵團</t>
+    <t>装甲骑兵团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E8%89%A6</t>
   </si>
   <si>
-    <t>軍艦</t>
+    <t>军舰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BD%9C%E8%89%87</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E6%AF%8D%E8%88%B0</t>
@@ -209,7 +209,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>化學武器</t>
+    <t>化学武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E6%88%98%E4%BA%89</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%A6%8F%E6%A8%A1%E6%AE%BA%E5%82%B7%E6%80%A7%E6%AD%A6%E5%99%A8</t>
   </si>
   <si>
-    <t>大規模殺傷性武器</t>
+    <t>大规模杀伤性武器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E6%88%98</t>
@@ -245,13 +245,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%B8%E8%A6%8F%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>常規戰爭</t>
+    <t>常规战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%83%E6%88%B0</t>
   </si>
   <si>
-    <t>會戰</t>
+    <t>会战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A0%91%E5%A3%95%E6%88%98</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%96%83%E9%9B%BB%E6%88%B0</t>
   </si>
   <si>
-    <t>閃電戰</t>
+    <t>闪电战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Unconventional_warfare</t>
@@ -275,7 +275,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E9%99%90%E6%88%B0</t>
   </si>
   <si>
-    <t>超限戰</t>
+    <t>超限战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A6%81%E5%A1%9E</t>
@@ -287,13 +287,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E6%A3%B2%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>兩棲作戰</t>
+    <t>两栖作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E9%99%90%E5%88%B6%E6%BD%9B%E8%89%87%E6%88%B0</t>
   </si>
   <si>
-    <t>無限制潛艇戰</t>
+    <t>无限制潜艇战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E4%BD%93%E6%88%98</t>
@@ -305,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E9%9B%B7%E9%99%A3</t>
   </si>
   <si>
-    <t>地雷陣</t>
+    <t>地雷阵</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%82%AE%E5%85%B5</t>
@@ -323,7 +323,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%B1%E6%B7%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>縱深作戰</t>
+    <t>纵深作战</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/joint_warfare</t>
@@ -347,25 +347,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%8E%E5%BC%B7%E5%BA%A6%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>低強度戰爭</t>
+    <t>低强度战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%BB%E9%82%8A%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>費邊戰術</t>
+    <t>费边战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E7%B5%A1%E4%B8%AD%E5%BF%83%E6%88%B0</t>
   </si>
   <si>
-    <t>網絡中心戰</t>
+    <t>网络中心战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%A5%E9%80%B8%E5%BE%85%E5%8B%9E</t>
   </si>
   <si>
-    <t>以逸待勞</t>
+    <t>以逸待劳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E7%95%A5</t>
@@ -377,7 +377,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%B2%E8%A1%9B%E6%88%B0</t>
   </si>
   <si>
-    <t>防衛戰</t>
+    <t>防卫战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A5%E4%BE%B5</t>
@@ -401,31 +401,31 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81</t>
   </si>
   <si>
-    <t>武裝衝突</t>
+    <t>武装冲突</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B8%E4%BA%92%E4%BF%9D%E8%AD%89%E6%AF%80%E6%BB%85</t>
   </si>
   <si>
-    <t>相互保證毀滅</t>
+    <t>相互保证毁灭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>正義戰爭</t>
+    <t>正义战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8</t>
   </si>
   <si>
-    <t>戰略轟炸</t>
+    <t>战略轰炸</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E9%96%93%E8%AB%9C</t>
   </si>
   <si>
-    <t>軍事間諜</t>
+    <t>军事间谍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A6%E5%9C%9F%E6%94%BF%E7%AD%96</t>
@@ -461,7 +461,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E7%B5%84%E7%B9%94</t>
   </si>
   <si>
-    <t>軍事組織</t>
+    <t>军事组织</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E5%8F%82%E8%B0%8B%E9%83%A8</t>
@@ -473,13 +473,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%99%A3%E5%BD%A2</t>
   </si>
   <si>
-    <t>陣形</t>
+    <t>阵形</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%88%B0%E5%BA%8F%E5%88%97</t>
   </si>
   <si>
-    <t>作戰序列</t>
+    <t>作战序列</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E8%A1%94</t>
@@ -497,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%82%99%E8%BB%8D%E4%BA%8B%E5%8B%95%E5%93%A1</t>
   </si>
   <si>
-    <t>後備軍事動員</t>
+    <t>后备军事动员</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8E%E5%8B%A4</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9C%80</t>
   </si>
   <si>
-    <t>軍需</t>
+    <t>军需</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%A5%E7%BB%99%E7%BA%BF</t>
@@ -521,13 +521,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%B7%A5%E6%A5%AD%E8%A4%87%E5%90%88%E9%AB%94</t>
   </si>
   <si>
-    <t>軍事工業複合體</t>
+    <t>军事工业复合体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%BE%8C%E6%96%B9</t>
   </si>
   <si>
-    <t>大後方</t>
+    <t>大后方</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B</t>
@@ -539,13 +539,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%B3%95%E5%AF%A9%E5%88%A4</t>
   </si>
   <si>
-    <t>軍法審判</t>
+    <t>军法审判</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%9D%E8%A1%9D%E7%AA%81%E6%B3%95</t>
   </si>
   <si>
-    <t>武裝衝突法</t>
+    <t>武装冲突法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8D%A0%E9%A2%86</t>
@@ -575,7 +575,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B5%E5%85%B5%E5%88%B6</t>
   </si>
   <si>
-    <t>徵兵制</t>
+    <t>征兵制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E5%8F%98</t>
@@ -593,7 +593,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>軍政府</t>
+    <t>军政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%92%E4%B8%A5</t>
@@ -617,7 +617,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事學</t>
+    <t>军事学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E8%AE%BA</t>
@@ -629,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%AB%E5%AD%90%E5%85%B5%E6%B3%95</t>
   </si>
   <si>
-    <t>孫子兵法</t>
+    <t>孙子兵法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E6%80%9D%E6%83%B3</t>
@@ -641,19 +641,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8C%E5%8B%A4%E5%AD%B8</t>
   </si>
   <si>
-    <t>後勤學</t>
+    <t>后勤学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%AD%B7%E5%8F%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>軍事歷史學</t>
+    <t>军事历史学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%8D%81%E5%85%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>三十六計</t>
+    <t>三十六计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9B%BD%E5%86%9B%E4%BA%8B%E5%88%97%E8%A1%A8</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%BD%B9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>戰役列表</t>
+    <t>战役列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E5%88%97%E8%A1%A8</t>
@@ -683,7 +683,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%A8%AE%E5%B0%8D%E7%AB%8B</t>
   </si>
   <si>
-    <t>軍種對立</t>
+    <t>军种对立</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%8F%B2</t>
@@ -695,19 +695,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%A4%A9%E5%9C%8B</t>
   </si>
   <si>
-    <t>太平天國</t>
+    <t>太平天国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%90%AC%E6%9B%86%E6%9C%9D%E9%AE%AE%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>萬曆朝鮮戰爭</t>
+    <t>万历朝鲜战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%82%99%E5%84%B2%E6%B2%B9</t>
   </si>
   <si>
-    <t>戰備儲油</t>
+    <t>战备储油</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A8%E7%89%A9</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E5%9C%AD%E6%88%98%E4%BA%89</t>
@@ -779,21 +779,18 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E8%A1%93</t>
   </si>
   <si>
-    <t>軍事戰術</t>
+    <t>军事战术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%88%B0%E7%95%A5</t>
   </si>
   <si>
-    <t>軍事戰略</t>
+    <t>军事战略</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E5%8F%B2</t>
   </si>
   <si>
-    <t>軍事史</t>
-  </si>
-  <si>
     <t>https://en.wikipedia.org/wiki/philosophy_of_war</t>
   </si>
   <si>
@@ -821,43 +818,40 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%B0%8D%E7%A8%B1%E4%BD%9C%E6%88%B0</t>
   </si>
   <si>
-    <t>非對稱作戰</t>
+    <t>非对称作战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B8%B8%E6%93%8A%E6%88%B0</t>
   </si>
   <si>
-    <t>游擊戰</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%96%E5%AD%B8%E6%88%B0</t>
   </si>
   <si>
-    <t>化學戰</t>
+    <t>化学战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第一次世界大戰</t>
+    <t>第一次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%82%AC%E6%B7%9A%E5%BD%88</t>
   </si>
   <si>
-    <t>催淚彈</t>
+    <t>催泪弹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E6%A4%92%E5%99%B4%E9%9C%A7</t>
   </si>
   <si>
-    <t>胡椒噴霧</t>
+    <t>胡椒喷雾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>內戰</t>
+    <t>内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E5%AD%90%E6%AD%A6%E5%99%A8</t>
@@ -875,15 +869,12 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>世界大戰</t>
+    <t>世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%A1%9E</t>
   </si>
   <si>
-    <t>人類</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%A8%E8%90%BD</t>
   </si>
   <si>
@@ -917,7 +908,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E8%B3%AA</t>
   </si>
   <si>
-    <t>物質</t>
+    <t>物质</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E6%A3%8D</t>
@@ -929,13 +920,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8B%95%E7%89%A9</t>
   </si>
   <si>
-    <t>動物</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BC%E6%98%8E</t>
   </si>
   <si>
-    <t>發明</t>
+    <t>发明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%93%E7%AE%AD</t>
@@ -947,7 +935,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A7%8D</t>
   </si>
   <si>
-    <t>槍</t>
+    <t>枪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9F%9B</t>
@@ -959,13 +947,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BD%88%E5%BC%93</t>
   </si>
   <si>
-    <t>彈弓</t>
+    <t>弹弓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A</t>
   </si>
   <si>
-    <t>攻擊</t>
+    <t>攻击</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%A9%E5%91%BD</t>
@@ -977,19 +965,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E5%AF%8C%E6%B1%97%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>阿富汗戰爭</t>
+    <t>阿富汗战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E7%89%99%E6%B5%B7%E5%B2%B8%E9%9D%A9%E5%91%BD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>象牙海岸革命戰爭</t>
+    <t>象牙海岸革命战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%8B%89%E5%85%8B%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>伊拉克戰爭</t>
+    <t>伊拉克战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008%E5%B9%B4%E5%8D%97%E5%A5%A5%E5%A1%9E%E6%A2%AF%E6%88%98%E4%BA%89</t>
@@ -1007,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%95%98%E5%88%A9%E4%BA%9E%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>敘利亞內戰</t>
+    <t>叙利亚内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E5%90%88%E5%9B%BD%E5%A4%A7%E4%BC%9A</t>
@@ -1025,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E8%98%87%E4%B8%B9</t>
   </si>
   <si>
-    <t>南蘇丹</t>
+    <t>南苏丹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%B2%E9%9A%86%E5%9C%B0</t>
@@ -1043,7 +1031,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%9D%E5%AE%81</t>
@@ -1055,7 +1043,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%B4%E7%B4%A2%E6%89%98</t>
   </si>
   <si>
-    <t>賴索托</t>
+    <t>赖索托</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%B4%A2%E6%B2%83</t>
@@ -1067,7 +1055,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%A3%AB%E5%B0%BC%E4%BA%9E%E8%88%87%E8%B5%AB%E5%A1%9E%E5%93%A5%E7%B6%AD%E7%B4%8D</t>
   </si>
   <si>
-    <t>波士尼亞與赫塞哥維納</t>
+    <t>波士尼亚与赫塞哥维纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%93%A5</t>
@@ -1085,7 +1073,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E5%9F%BA%E6%96%AF%E5%9D%A6</t>
@@ -1139,7 +1127,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -1157,7 +1145,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>南斯拉夫內戰</t>
+    <t>南斯拉夫内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%97%8F</t>
@@ -1187,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E8%81%AF%E9%82%A6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>南斯拉夫社會主義聯邦共和國</t>
+    <t>南斯拉夫社会主义联邦共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E8%81%94</t>
@@ -1205,9 +1193,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E5%B0%94%E7%BB%B4%E4%BA%9A</t>
   </si>
   <si>
-    <t>塞尔维亚</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E6%96%AF%E6%8B%89%E5%A4%AB</t>
   </si>
   <si>
@@ -1217,7 +1202,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%86%9B%E4%BA%8B</t>
@@ -1241,7 +1226,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E4%BA%8B</t>
   </si>
   <si>
-    <t>英國軍事</t>
+    <t>英国军事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -1271,13 +1256,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第二次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%BE%81%E6%88%B0</t>
   </si>
   <si>
-    <t>蒙古征戰</t>
+    <t>蒙古征战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
@@ -1289,13 +1271,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B8%85%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>大清帝國</t>
+    <t>大清帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華人民共和國</t>
+    <t>中华人民共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3</t>
@@ -1307,7 +1289,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E5%8F%A3%E5%A2%9E%E9%95%B7</t>
   </si>
   <si>
-    <t>人口增長</t>
+    <t>人口增长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E5%90%84%E5%9B%BD%E4%BC%A4%E4%BA%A1%E7%BB%9F%E8%AE%A1</t>
@@ -1331,13 +1313,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E5%9C%8B</t>
   </si>
   <si>
-    <t>三國</t>
+    <t>三国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E8%98%87%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>德蘇戰爭</t>
+    <t>德苏战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E6%B8%85%E6%88%98%E4%BA%89</t>
@@ -1349,9 +1331,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
   </si>
   <si>
-    <t>第一次世界大战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98%E5%90%84%E5%9B%BD%E4%BC%A4%E4%BA%A1%E7%BB%9F%E8%AE%A1</t>
   </si>
   <si>
@@ -1361,9 +1340,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E5%A4%A9%E5%9B%BD</t>
   </si>
   <si>
-    <t>太平天国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%BB%E5%86%9B</t>
   </si>
   <si>
@@ -1403,7 +1379,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%8B</t>
   </si>
   <si>
-    <t>戰國</t>
+    <t>战国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%B2%BB%E9%99%95%E7%94%98%E5%9B%9E%E5%8F%98</t>
@@ -1415,7 +1391,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%9C%8B%E5%85%B1%E5%85%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次國共內戰</t>
+    <t>第二次国共内战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%96%E6%9C%A8%E5%84%BF%E5%B8%9D%E5%9B%BD</t>
@@ -1439,19 +1415,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/M1%E6%88%B0%E8%BB%8A</t>
   </si>
   <si>
-    <t>M1戰車</t>
+    <t>M1战车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>正義</t>
+    <t>正义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%9B%E4%BA%8B%E5%AE%B6</t>
@@ -1469,7 +1445,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5</t>
   </si>
   <si>
-    <t>戰鬥</t>
+    <t>战斗</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E6%88%98</t>
@@ -1481,15 +1457,9 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%85%E6%88%98</t>
   </si>
   <si>
-    <t>内战</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%A6%E8%A3%85%E5%86%B2%E7%AA%81</t>
   </si>
   <si>
-    <t>武装冲突</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B5%E5%99%A8</t>
   </si>
   <si>
@@ -1517,7 +1487,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%88%B0%E7%88%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>世界戰爭列表</t>
+    <t>世界战争列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%97%E6%95%99%E6%88%98%E4%BA%89</t>
@@ -1529,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%9C%B0%E8%A8%98%E8%80%85</t>
   </si>
   <si>
-    <t>戰地記者</t>
+    <t>战地记者</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E5%A3%AB</t>
   </si>
   <si>
-    <t>戰士</t>
+    <t>战士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%A6%E8%BD%AE%E6%88%98</t>
@@ -1565,7 +1535,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E6%AA%A2</t>
   </si>
   <si>
-    <t>屍檢</t>
+    <t>尸检</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%84%91%E6%AD%BB</t>
@@ -1577,7 +1547,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%BE%8C%E6%8A%BD%E6%90%90</t>
   </si>
   <si>
-    <t>死後抽搐</t>
+    <t>死后抽搐</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B4%E5%BA%8A%E6%AD%BB%E4%BA%A1</t>
@@ -1607,7 +1577,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E7%8F%BE%E8%B1%A1</t>
   </si>
   <si>
-    <t>拉撒路現象</t>
+    <t>拉撒路现象</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%92%92%E8%B7%AF%E7%BB%BC%E5%90%88%E7%97%87</t>
@@ -1625,13 +1595,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%A8%E5%AE%98%E6%8D%90%E8%B4%88</t>
   </si>
   <si>
-    <t>器官捐贈</t>
+    <t>器官捐赠</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%95%E7%97%87</t>
   </si>
   <si>
-    <t>絕症</t>
+    <t>绝症</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8C%9D%E6%AD%BB</t>
@@ -1685,7 +1655,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%B7%E5%B9%B4%E9%80%9D%E4%B8%96%E4%BA%BA%E7%89%A9%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>歷年逝世人物列表</t>
+    <t>历年逝世人物列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_unusual_deaths</t>
@@ -1721,7 +1691,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%8E%E5%8B%9E%E6%AD%BB</t>
   </si>
   <si>
-    <t>過勞死</t>
+    <t>过劳死</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_death</t>
@@ -1757,13 +1727,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E7%94%9F%E5%85%92%E6%AD%BB%E4%BA%A1</t>
   </si>
   <si>
-    <t>新生兒死亡</t>
+    <t>新生儿死亡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8D%E9%AB%94</t>
   </si>
   <si>
-    <t>屍體</t>
+    <t>尸体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%9F%E8%91%AC</t>
@@ -1817,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E9%AB%94%E5%86%B7%E5%87%8D%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>人體冷凍技術</t>
+    <t>人体冷冻技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%86%E8%A7%A3%E4%BD%9C%E7%94%A8</t>
@@ -1835,7 +1805,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E9%AB%94%E4%BF%9D%E5%AD%98%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>遺體保存技術</t>
+    <t>遗体保存技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%A8%E4%B9%83%E4%BC%8A</t>
@@ -1847,7 +1817,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B7%E5%87%8D%E8%91%AC</t>
   </si>
   <si>
-    <t>冷凍葬</t>
+    <t>冷冻葬</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Putrefaction</t>
@@ -1865,7 +1835,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BE%86%E4%B8%96</t>
   </si>
   <si>
-    <t>來世</t>
+    <t>来世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%B8%E4%BD%93%E7%8E%B0%E8%B1%A1</t>
@@ -1883,7 +1853,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A2%B3%E5%A0%B4</t>
   </si>
   <si>
-    <t>墳場</t>
+    <t>坟场</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Consciousness_after_death</t>
@@ -1919,7 +1889,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AA%E6%85%9F</t>
   </si>
   <si>
-    <t>喪慟</t>
+    <t>丧恸</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Intermediate_state</t>
@@ -1931,13 +1901,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AA%E4%BA%8B</t>
   </si>
   <si>
-    <t>喪事</t>
+    <t>丧事</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%A9%E6%B4%BB</t>
   </si>
   <si>
-    <t>復活</t>
+    <t>复活</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Taboo_on_the_dead</t>
@@ -1955,13 +1925,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E5%84%80</t>
   </si>
   <si>
-    <t>吉儀</t>
+    <t>吉仪</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%83%E5%A2%93</t>
   </si>
   <si>
-    <t>掃墓</t>
+    <t>扫墓</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A5%A0%E7%A5%AD</t>
@@ -1979,7 +1949,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%80%95%E6%AD%BB%E7%B6%93%E9%A9%97</t>
   </si>
   <si>
-    <t>瀕死經驗</t>
+    <t>濒死经验</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Near-death_studies</t>
@@ -1991,25 +1961,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9B%E9%AD%82%E8%A1%93</t>
   </si>
   <si>
-    <t>招魂術</t>
+    <t>招魂术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%88%E9%AD%82%E5%87%BA%E7%AB%85</t>
   </si>
   <si>
-    <t>靈魂出竅</t>
+    <t>灵魂出窍</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%89%E4%B8%96</t>
   </si>
   <si>
-    <t>轉世</t>
+    <t>转世</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BC%AA%E8%BF%B4</t>
   </si>
   <si>
-    <t>輪迴</t>
+    <t>轮回</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%8D%E7%A5%9E%E4%BC%9A</t>
@@ -2051,13 +2021,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E5%88%91%E6%A1%88%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>死刑案陪審團</t>
+    <t>死刑案陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E8%AD%89</t>
   </si>
   <si>
-    <t>死亡證</t>
+    <t>死亡证</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Declared_death_in_absentia</t>
@@ -2093,7 +2063,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AC%80%E6%AE%BA</t>
   </si>
   <si>
-    <t>謀殺</t>
+    <t>谋杀</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Right_to_die</t>
@@ -2111,13 +2081,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%BB%B6%E7%BA%8C</t>
   </si>
   <si>
-    <t>生命延續</t>
+    <t>生命延续</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Death_and_culture</t>
@@ -2165,7 +2135,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BB%85%E7%B5%95%E7%87%9F</t>
   </si>
   <si>
-    <t>滅絕營</t>
+    <t>灭绝营</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Death_drive</t>
@@ -2279,7 +2249,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%88%80%E5%B1%8D%E7%99%96</t>
   </si>
   <si>
-    <t>戀屍癖</t>
+    <t>恋尸癖</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%95%E9%A3%9F</t>
@@ -2315,7 +2285,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E6%AE%BA</t>
   </si>
   <si>
-    <t>自殺</t>
+    <t>自杀</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%8F%E5%8A%A9%E8%87%AA%E6%9D%80</t>
@@ -2333,7 +2303,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%BB%E4%BA%A1%E5%AD%B8</t>
   </si>
   <si>
-    <t>死亡學</t>
+    <t>死亡学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Thanatosensitivity</t>
@@ -2357,7 +2327,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -2375,7 +2345,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikiquote.org/wiki/%E6%88%98%E4%BA%89</t>
@@ -6580,7 +6550,7 @@
         <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6606,10 +6576,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
+        <v>258</v>
+      </c>
+      <c r="F134" t="s">
         <v>259</v>
-      </c>
-      <c r="F134" t="s">
-        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6664,10 +6634,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
+        <v>260</v>
+      </c>
+      <c r="F136" t="s">
         <v>261</v>
-      </c>
-      <c r="F136" t="s">
-        <v>262</v>
       </c>
       <c r="G136" t="n">
         <v>2</v>
@@ -6693,10 +6663,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
+        <v>262</v>
+      </c>
+      <c r="F137" t="s">
         <v>263</v>
-      </c>
-      <c r="F137" t="s">
-        <v>264</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6722,10 +6692,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
+        <v>264</v>
+      </c>
+      <c r="F138" t="s">
         <v>265</v>
-      </c>
-      <c r="F138" t="s">
-        <v>266</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6751,10 +6721,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
+        <v>266</v>
+      </c>
+      <c r="F139" t="s">
         <v>267</v>
-      </c>
-      <c r="F139" t="s">
-        <v>268</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -6780,10 +6750,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>270</v>
+        <v>108</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -6809,10 +6779,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F141" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6838,10 +6808,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F142" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -6867,10 +6837,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F143" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6896,10 +6866,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6925,10 +6895,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G145" t="n">
         <v>5</v>
@@ -6954,10 +6924,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F146" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -6983,10 +6953,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F147" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -7012,10 +6982,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G148" t="n">
         <v>10</v>
@@ -7070,10 +7040,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F150" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="G150" t="n">
         <v>4</v>
@@ -7099,10 +7069,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -7128,10 +7098,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -7157,10 +7127,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -7186,10 +7156,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -7215,10 +7185,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -7244,10 +7214,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -7273,10 +7243,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -7302,10 +7272,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>304</v>
+        <v>232</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -7331,10 +7301,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="F159" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -7360,10 +7330,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F160" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -7389,10 +7359,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F161" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -7418,10 +7388,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F162" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -7447,10 +7417,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="F163" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -7476,10 +7446,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7505,10 +7475,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7534,10 +7504,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -7563,10 +7533,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -7592,10 +7562,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7621,10 +7591,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -7650,10 +7620,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -7679,10 +7649,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7708,10 +7678,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -7737,10 +7707,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>2</v>
@@ -7766,10 +7736,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7795,10 +7765,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7824,10 +7794,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>3</v>
@@ -7853,10 +7823,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7882,10 +7852,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7911,10 +7881,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7940,10 +7910,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7969,10 +7939,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7998,10 +7968,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -8027,10 +7997,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>4</v>
@@ -8056,10 +8026,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>3</v>
@@ -8085,10 +8055,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>2</v>
@@ -8114,10 +8084,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -8143,10 +8113,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -8172,10 +8142,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -8201,10 +8171,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -8230,10 +8200,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>2</v>
@@ -8259,10 +8229,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>1</v>
@@ -8288,10 +8258,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="F192" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -8317,10 +8287,10 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="F193" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="G193" t="n">
         <v>2</v>
@@ -8346,10 +8316,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="F194" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="G194" t="n">
         <v>1</v>
@@ -8375,10 +8345,10 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="F195" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="G195" t="n">
         <v>1</v>
@@ -8404,10 +8374,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F196" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -8433,10 +8403,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="F197" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -8462,10 +8432,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="F198" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8491,10 +8461,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="F199" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8520,10 +8490,10 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="F200" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="G200" t="n">
         <v>1</v>
@@ -8549,10 +8519,10 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="F201" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="G201" t="n">
         <v>1</v>
@@ -8578,10 +8548,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="F202" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8607,10 +8577,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F203" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8636,10 +8606,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="F204" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="G204" t="n">
         <v>2</v>
@@ -8665,10 +8635,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>397</v>
+        <v>392</v>
       </c>
       <c r="F205" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G205" t="n">
         <v>3</v>
@@ -8694,10 +8664,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="F206" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="G206" t="n">
         <v>3</v>
@@ -8723,10 +8693,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="F207" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8752,10 +8722,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="F208" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="G208" t="n">
         <v>3</v>
@@ -8781,10 +8751,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="F209" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8810,10 +8780,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>407</v>
+        <v>402</v>
       </c>
       <c r="F210" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -8839,10 +8809,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>409</v>
+        <v>404</v>
       </c>
       <c r="F211" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -8868,10 +8838,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="F212" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -8897,10 +8867,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="F213" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="G213" t="n">
         <v>2</v>
@@ -8926,10 +8896,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="F214" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8955,10 +8925,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="F215" t="s">
-        <v>418</v>
+        <v>242</v>
       </c>
       <c r="G215" t="n">
         <v>4</v>
@@ -8984,10 +8954,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F216" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="G216" t="n">
         <v>2</v>
@@ -9013,10 +8983,10 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F217" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G217" t="n">
         <v>1</v>
@@ -9042,10 +9012,10 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F218" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G218" t="n">
         <v>1</v>
@@ -9071,10 +9041,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F219" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -9100,10 +9070,10 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F220" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G220" t="n">
         <v>3</v>
@@ -9129,10 +9099,10 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F221" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G221" t="n">
         <v>1</v>
@@ -9158,10 +9128,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F222" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -9187,10 +9157,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F223" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -9216,10 +9186,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F224" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -9245,10 +9215,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F225" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -9274,10 +9244,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -9303,10 +9273,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F227" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -9332,10 +9302,10 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F228" t="s">
-        <v>444</v>
+        <v>272</v>
       </c>
       <c r="G228" t="n">
         <v>2</v>
@@ -9361,10 +9331,10 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="F229" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
       <c r="G229" t="n">
         <v>1</v>
@@ -9390,10 +9360,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="F230" t="s">
-        <v>448</v>
+        <v>226</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -9419,10 +9389,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="F231" t="s">
-        <v>450</v>
+        <v>442</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -9448,10 +9418,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>451</v>
+        <v>443</v>
       </c>
       <c r="F232" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9477,10 +9447,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>453</v>
+        <v>445</v>
       </c>
       <c r="F233" t="s">
-        <v>454</v>
+        <v>446</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9506,10 +9476,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
       <c r="F234" t="s">
-        <v>456</v>
+        <v>448</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9535,10 +9505,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="F235" t="s">
-        <v>458</v>
+        <v>450</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9564,10 +9534,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="F236" t="s">
-        <v>460</v>
+        <v>452</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9593,10 +9563,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>461</v>
+        <v>453</v>
       </c>
       <c r="F237" t="s">
-        <v>462</v>
+        <v>454</v>
       </c>
       <c r="G237" t="n">
         <v>2</v>
@@ -9622,10 +9592,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="F238" t="s">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9651,10 +9621,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
       <c r="F239" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9680,10 +9650,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>467</v>
+        <v>459</v>
       </c>
       <c r="F240" t="s">
-        <v>468</v>
+        <v>460</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9709,10 +9679,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>469</v>
+        <v>461</v>
       </c>
       <c r="F241" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9738,10 +9708,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>471</v>
+        <v>463</v>
       </c>
       <c r="F242" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9767,10 +9737,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>473</v>
+        <v>465</v>
       </c>
       <c r="F243" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9796,10 +9766,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="F244" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9825,10 +9795,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>477</v>
+        <v>469</v>
       </c>
       <c r="F245" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9854,10 +9824,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>479</v>
+        <v>471</v>
       </c>
       <c r="F246" t="s">
-        <v>480</v>
+        <v>472</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9883,10 +9853,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>473</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="G247" t="n">
         <v>7</v>
@@ -9912,10 +9882,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9970,10 +9940,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="G250" t="n">
         <v>3</v>
@@ -10028,10 +9998,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="F252" t="s">
-        <v>488</v>
+        <v>278</v>
       </c>
       <c r="G252" t="n">
         <v>4</v>
@@ -10057,10 +10027,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="F253" t="s">
-        <v>490</v>
+        <v>128</v>
       </c>
       <c r="G253" t="n">
         <v>10</v>
@@ -10086,10 +10056,10 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>491</v>
+        <v>481</v>
       </c>
       <c r="F254" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="G254" t="n">
         <v>1</v>
@@ -10115,10 +10085,10 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="F255" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="G255" t="n">
         <v>1</v>
@@ -10144,10 +10114,10 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="F256" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="G256" t="n">
         <v>1</v>
@@ -10173,10 +10143,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="F257" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -10202,10 +10172,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>490</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -10231,10 +10201,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>491</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>492</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10289,10 +10259,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>503</v>
+        <v>493</v>
       </c>
       <c r="F261" t="s">
-        <v>504</v>
+        <v>494</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -10318,10 +10288,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>505</v>
+        <v>495</v>
       </c>
       <c r="F262" t="s">
-        <v>506</v>
+        <v>496</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -10347,10 +10317,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>507</v>
+        <v>497</v>
       </c>
       <c r="F263" t="s">
-        <v>508</v>
+        <v>498</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -10376,10 +10346,10 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>509</v>
+        <v>499</v>
       </c>
       <c r="F264" t="s">
-        <v>510</v>
+        <v>500</v>
       </c>
       <c r="G264" t="n">
         <v>6</v>
@@ -10405,10 +10375,10 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>511</v>
+        <v>501</v>
       </c>
       <c r="F265" t="s">
-        <v>512</v>
+        <v>502</v>
       </c>
       <c r="G265" t="n">
         <v>33</v>
@@ -10434,10 +10404,10 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>513</v>
+        <v>503</v>
       </c>
       <c r="F266" t="s">
-        <v>514</v>
+        <v>504</v>
       </c>
       <c r="G266" t="n">
         <v>2</v>
@@ -10463,10 +10433,10 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>515</v>
+        <v>505</v>
       </c>
       <c r="F267" t="s">
-        <v>516</v>
+        <v>506</v>
       </c>
       <c r="G267" t="n">
         <v>1</v>
@@ -10492,10 +10462,10 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>517</v>
+        <v>507</v>
       </c>
       <c r="F268" t="s">
-        <v>518</v>
+        <v>508</v>
       </c>
       <c r="G268" t="n">
         <v>1</v>
@@ -10521,10 +10491,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>519</v>
+        <v>509</v>
       </c>
       <c r="F269" t="s">
-        <v>520</v>
+        <v>510</v>
       </c>
       <c r="G269" t="n">
         <v>1</v>
@@ -10550,10 +10520,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>521</v>
+        <v>511</v>
       </c>
       <c r="F270" t="s">
-        <v>522</v>
+        <v>512</v>
       </c>
       <c r="G270" t="n">
         <v>1</v>
@@ -10579,10 +10549,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="F271" t="s">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="G271" t="n">
         <v>1</v>
@@ -10608,10 +10578,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="F272" t="s">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="G272" t="n">
         <v>1</v>
@@ -10637,10 +10607,10 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="F273" t="s">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="G273" t="n">
         <v>1</v>
@@ -10666,10 +10636,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="F274" t="s">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10695,10 +10665,10 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="F275" t="s">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="G275" t="n">
         <v>1</v>
@@ -10724,10 +10694,10 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="F276" t="s">
-        <v>534</v>
+        <v>524</v>
       </c>
       <c r="G276" t="n">
         <v>1</v>
@@ -10753,10 +10723,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="F277" t="s">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10782,10 +10752,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="F278" t="s">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10811,10 +10781,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="F279" t="s">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10840,10 +10810,10 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="F280" t="s">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="G280" t="n">
         <v>2</v>
@@ -10869,10 +10839,10 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="F281" t="s">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="G281" t="n">
         <v>1</v>
@@ -10898,10 +10868,10 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="G282" t="n">
         <v>1</v>
@@ -10927,10 +10897,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>547</v>
+        <v>537</v>
       </c>
       <c r="F283" t="s">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="G283" t="n">
         <v>1</v>
@@ -10956,10 +10926,10 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="F284" t="s">
-        <v>550</v>
+        <v>540</v>
       </c>
       <c r="G284" t="n">
         <v>1</v>
@@ -10985,10 +10955,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="F285" t="s">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -11014,10 +10984,10 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="F286" t="s">
-        <v>554</v>
+        <v>544</v>
       </c>
       <c r="G286" t="n">
         <v>1</v>
@@ -11043,10 +11013,10 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>555</v>
+        <v>545</v>
       </c>
       <c r="F287" t="s">
-        <v>556</v>
+        <v>546</v>
       </c>
       <c r="G287" t="n">
         <v>1</v>
@@ -11072,10 +11042,10 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>557</v>
+        <v>547</v>
       </c>
       <c r="F288" t="s">
-        <v>558</v>
+        <v>548</v>
       </c>
       <c r="G288" t="n">
         <v>1</v>
@@ -11101,10 +11071,10 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>559</v>
+        <v>549</v>
       </c>
       <c r="F289" t="s">
-        <v>560</v>
+        <v>550</v>
       </c>
       <c r="G289" t="n">
         <v>1</v>
@@ -11130,10 +11100,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>561</v>
+        <v>551</v>
       </c>
       <c r="F290" t="s">
-        <v>562</v>
+        <v>552</v>
       </c>
       <c r="G290" t="n">
         <v>1</v>
@@ -11159,10 +11129,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>563</v>
+        <v>553</v>
       </c>
       <c r="F291" t="s">
-        <v>564</v>
+        <v>554</v>
       </c>
       <c r="G291" t="n">
         <v>1</v>
@@ -11188,10 +11158,10 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>565</v>
+        <v>555</v>
       </c>
       <c r="F292" t="s">
-        <v>566</v>
+        <v>556</v>
       </c>
       <c r="G292" t="n">
         <v>1</v>
@@ -11217,10 +11187,10 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>567</v>
+        <v>557</v>
       </c>
       <c r="F293" t="s">
-        <v>568</v>
+        <v>558</v>
       </c>
       <c r="G293" t="n">
         <v>1</v>
@@ -11246,10 +11216,10 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>569</v>
+        <v>559</v>
       </c>
       <c r="F294" t="s">
-        <v>570</v>
+        <v>560</v>
       </c>
       <c r="G294" t="n">
         <v>1</v>
@@ -11275,10 +11245,10 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>571</v>
+        <v>561</v>
       </c>
       <c r="F295" t="s">
-        <v>572</v>
+        <v>562</v>
       </c>
       <c r="G295" t="n">
         <v>1</v>
@@ -11304,10 +11274,10 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>573</v>
+        <v>563</v>
       </c>
       <c r="F296" t="s">
-        <v>574</v>
+        <v>564</v>
       </c>
       <c r="G296" t="n">
         <v>1</v>
@@ -11333,10 +11303,10 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>575</v>
+        <v>565</v>
       </c>
       <c r="F297" t="s">
-        <v>576</v>
+        <v>566</v>
       </c>
       <c r="G297" t="n">
         <v>1</v>
@@ -11362,10 +11332,10 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>577</v>
+        <v>567</v>
       </c>
       <c r="F298" t="s">
-        <v>578</v>
+        <v>568</v>
       </c>
       <c r="G298" t="n">
         <v>1</v>
@@ -11391,10 +11361,10 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>579</v>
+        <v>569</v>
       </c>
       <c r="F299" t="s">
-        <v>580</v>
+        <v>570</v>
       </c>
       <c r="G299" t="n">
         <v>1</v>
@@ -11420,10 +11390,10 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>581</v>
+        <v>571</v>
       </c>
       <c r="F300" t="s">
-        <v>582</v>
+        <v>572</v>
       </c>
       <c r="G300" t="n">
         <v>1</v>
@@ -11449,10 +11419,10 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
       <c r="F301" t="s">
-        <v>584</v>
+        <v>574</v>
       </c>
       <c r="G301" t="n">
         <v>1</v>
@@ -11478,10 +11448,10 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>585</v>
+        <v>575</v>
       </c>
       <c r="F302" t="s">
-        <v>586</v>
+        <v>576</v>
       </c>
       <c r="G302" t="n">
         <v>1</v>
@@ -11507,10 +11477,10 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>587</v>
+        <v>577</v>
       </c>
       <c r="F303" t="s">
-        <v>588</v>
+        <v>578</v>
       </c>
       <c r="G303" t="n">
         <v>1</v>
@@ -11536,10 +11506,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
       <c r="F304" t="s">
-        <v>590</v>
+        <v>580</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11565,10 +11535,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>591</v>
+        <v>581</v>
       </c>
       <c r="F305" t="s">
-        <v>592</v>
+        <v>582</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11594,10 +11564,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>593</v>
+        <v>583</v>
       </c>
       <c r="F306" t="s">
-        <v>594</v>
+        <v>584</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11623,10 +11593,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>595</v>
+        <v>585</v>
       </c>
       <c r="F307" t="s">
-        <v>596</v>
+        <v>586</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11652,10 +11622,10 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>597</v>
+        <v>587</v>
       </c>
       <c r="F308" t="s">
-        <v>598</v>
+        <v>588</v>
       </c>
       <c r="G308" t="n">
         <v>1</v>
@@ -11681,10 +11651,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>599</v>
+        <v>589</v>
       </c>
       <c r="F309" t="s">
-        <v>600</v>
+        <v>590</v>
       </c>
       <c r="G309" t="n">
         <v>1</v>
@@ -11710,10 +11680,10 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>601</v>
+        <v>591</v>
       </c>
       <c r="F310" t="s">
-        <v>602</v>
+        <v>592</v>
       </c>
       <c r="G310" t="n">
         <v>1</v>
@@ -11739,10 +11709,10 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>603</v>
+        <v>593</v>
       </c>
       <c r="F311" t="s">
-        <v>604</v>
+        <v>594</v>
       </c>
       <c r="G311" t="n">
         <v>1</v>
@@ -11768,10 +11738,10 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>605</v>
+        <v>595</v>
       </c>
       <c r="F312" t="s">
-        <v>606</v>
+        <v>596</v>
       </c>
       <c r="G312" t="n">
         <v>1</v>
@@ -11797,10 +11767,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>607</v>
+        <v>597</v>
       </c>
       <c r="F313" t="s">
-        <v>608</v>
+        <v>598</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11826,10 +11796,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>609</v>
+        <v>599</v>
       </c>
       <c r="F314" t="s">
-        <v>610</v>
+        <v>600</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11855,10 +11825,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>611</v>
+        <v>601</v>
       </c>
       <c r="F315" t="s">
-        <v>612</v>
+        <v>602</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11884,10 +11854,10 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>613</v>
+        <v>603</v>
       </c>
       <c r="F316" t="s">
-        <v>614</v>
+        <v>604</v>
       </c>
       <c r="G316" t="n">
         <v>1</v>
@@ -11913,10 +11883,10 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>615</v>
+        <v>605</v>
       </c>
       <c r="F317" t="s">
-        <v>616</v>
+        <v>606</v>
       </c>
       <c r="G317" t="n">
         <v>1</v>
@@ -11942,10 +11912,10 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>617</v>
+        <v>607</v>
       </c>
       <c r="F318" t="s">
-        <v>618</v>
+        <v>608</v>
       </c>
       <c r="G318" t="n">
         <v>1</v>
@@ -11971,10 +11941,10 @@
         <v>318</v>
       </c>
       <c r="E319" t="s">
-        <v>619</v>
+        <v>609</v>
       </c>
       <c r="F319" t="s">
-        <v>620</v>
+        <v>610</v>
       </c>
       <c r="G319" t="n">
         <v>1</v>
@@ -12000,10 +11970,10 @@
         <v>319</v>
       </c>
       <c r="E320" t="s">
-        <v>621</v>
+        <v>611</v>
       </c>
       <c r="F320" t="s">
-        <v>622</v>
+        <v>612</v>
       </c>
       <c r="G320" t="n">
         <v>1</v>
@@ -12029,10 +11999,10 @@
         <v>320</v>
       </c>
       <c r="E321" t="s">
-        <v>623</v>
+        <v>613</v>
       </c>
       <c r="F321" t="s">
-        <v>624</v>
+        <v>614</v>
       </c>
       <c r="G321" t="n">
         <v>1</v>
@@ -12058,10 +12028,10 @@
         <v>321</v>
       </c>
       <c r="E322" t="s">
-        <v>625</v>
+        <v>615</v>
       </c>
       <c r="F322" t="s">
-        <v>626</v>
+        <v>616</v>
       </c>
       <c r="G322" t="n">
         <v>1</v>
@@ -12087,10 +12057,10 @@
         <v>322</v>
       </c>
       <c r="E323" t="s">
-        <v>627</v>
+        <v>617</v>
       </c>
       <c r="F323" t="s">
-        <v>628</v>
+        <v>618</v>
       </c>
       <c r="G323" t="n">
         <v>2</v>
@@ -12116,10 +12086,10 @@
         <v>323</v>
       </c>
       <c r="E324" t="s">
-        <v>629</v>
+        <v>619</v>
       </c>
       <c r="F324" t="s">
-        <v>630</v>
+        <v>620</v>
       </c>
       <c r="G324" t="n">
         <v>1</v>
@@ -12145,10 +12115,10 @@
         <v>324</v>
       </c>
       <c r="E325" t="s">
-        <v>631</v>
+        <v>621</v>
       </c>
       <c r="F325" t="s">
-        <v>632</v>
+        <v>622</v>
       </c>
       <c r="G325" t="n">
         <v>1</v>
@@ -12174,10 +12144,10 @@
         <v>325</v>
       </c>
       <c r="E326" t="s">
-        <v>633</v>
+        <v>623</v>
       </c>
       <c r="F326" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="G326" t="n">
         <v>1</v>
@@ -12203,10 +12173,10 @@
         <v>326</v>
       </c>
       <c r="E327" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
       <c r="F327" t="s">
-        <v>636</v>
+        <v>626</v>
       </c>
       <c r="G327" t="n">
         <v>2</v>
@@ -12232,10 +12202,10 @@
         <v>327</v>
       </c>
       <c r="E328" t="s">
-        <v>637</v>
+        <v>627</v>
       </c>
       <c r="F328" t="s">
-        <v>638</v>
+        <v>628</v>
       </c>
       <c r="G328" t="n">
         <v>1</v>
@@ -12261,10 +12231,10 @@
         <v>328</v>
       </c>
       <c r="E329" t="s">
-        <v>639</v>
+        <v>629</v>
       </c>
       <c r="F329" t="s">
-        <v>640</v>
+        <v>630</v>
       </c>
       <c r="G329" t="n">
         <v>1</v>
@@ -12290,10 +12260,10 @@
         <v>329</v>
       </c>
       <c r="E330" t="s">
-        <v>641</v>
+        <v>631</v>
       </c>
       <c r="F330" t="s">
-        <v>642</v>
+        <v>632</v>
       </c>
       <c r="G330" t="n">
         <v>2</v>
@@ -12319,10 +12289,10 @@
         <v>330</v>
       </c>
       <c r="E331" t="s">
-        <v>643</v>
+        <v>633</v>
       </c>
       <c r="F331" t="s">
-        <v>644</v>
+        <v>634</v>
       </c>
       <c r="G331" t="n">
         <v>2</v>
@@ -12348,10 +12318,10 @@
         <v>331</v>
       </c>
       <c r="E332" t="s">
-        <v>645</v>
+        <v>635</v>
       </c>
       <c r="F332" t="s">
-        <v>646</v>
+        <v>636</v>
       </c>
       <c r="G332" t="n">
         <v>1</v>
@@ -12377,10 +12347,10 @@
         <v>332</v>
       </c>
       <c r="E333" t="s">
-        <v>647</v>
+        <v>637</v>
       </c>
       <c r="F333" t="s">
-        <v>648</v>
+        <v>638</v>
       </c>
       <c r="G333" t="n">
         <v>1</v>
@@ -12406,10 +12376,10 @@
         <v>333</v>
       </c>
       <c r="E334" t="s">
-        <v>649</v>
+        <v>639</v>
       </c>
       <c r="F334" t="s">
-        <v>650</v>
+        <v>640</v>
       </c>
       <c r="G334" t="n">
         <v>1</v>
@@ -12435,10 +12405,10 @@
         <v>334</v>
       </c>
       <c r="E335" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="F335" t="s">
-        <v>652</v>
+        <v>642</v>
       </c>
       <c r="G335" t="n">
         <v>1</v>
@@ -12464,10 +12434,10 @@
         <v>335</v>
       </c>
       <c r="E336" t="s">
-        <v>653</v>
+        <v>643</v>
       </c>
       <c r="F336" t="s">
-        <v>654</v>
+        <v>644</v>
       </c>
       <c r="G336" t="n">
         <v>1</v>
@@ -12493,10 +12463,10 @@
         <v>336</v>
       </c>
       <c r="E337" t="s">
-        <v>655</v>
+        <v>645</v>
       </c>
       <c r="F337" t="s">
-        <v>656</v>
+        <v>646</v>
       </c>
       <c r="G337" t="n">
         <v>2</v>
@@ -12522,10 +12492,10 @@
         <v>337</v>
       </c>
       <c r="E338" t="s">
-        <v>657</v>
+        <v>647</v>
       </c>
       <c r="F338" t="s">
-        <v>658</v>
+        <v>648</v>
       </c>
       <c r="G338" t="n">
         <v>1</v>
@@ -12551,10 +12521,10 @@
         <v>338</v>
       </c>
       <c r="E339" t="s">
-        <v>659</v>
+        <v>649</v>
       </c>
       <c r="F339" t="s">
-        <v>660</v>
+        <v>650</v>
       </c>
       <c r="G339" t="n">
         <v>1</v>
@@ -12580,10 +12550,10 @@
         <v>339</v>
       </c>
       <c r="E340" t="s">
-        <v>661</v>
+        <v>651</v>
       </c>
       <c r="F340" t="s">
-        <v>662</v>
+        <v>652</v>
       </c>
       <c r="G340" t="n">
         <v>1</v>
@@ -12609,10 +12579,10 @@
         <v>340</v>
       </c>
       <c r="E341" t="s">
-        <v>663</v>
+        <v>653</v>
       </c>
       <c r="F341" t="s">
-        <v>664</v>
+        <v>654</v>
       </c>
       <c r="G341" t="n">
         <v>1</v>
@@ -12638,10 +12608,10 @@
         <v>341</v>
       </c>
       <c r="E342" t="s">
-        <v>665</v>
+        <v>655</v>
       </c>
       <c r="F342" t="s">
-        <v>666</v>
+        <v>656</v>
       </c>
       <c r="G342" t="n">
         <v>1</v>
@@ -12667,10 +12637,10 @@
         <v>342</v>
       </c>
       <c r="E343" t="s">
-        <v>667</v>
+        <v>657</v>
       </c>
       <c r="F343" t="s">
-        <v>668</v>
+        <v>658</v>
       </c>
       <c r="G343" t="n">
         <v>1</v>
@@ -12696,10 +12666,10 @@
         <v>343</v>
       </c>
       <c r="E344" t="s">
-        <v>669</v>
+        <v>659</v>
       </c>
       <c r="F344" t="s">
-        <v>670</v>
+        <v>660</v>
       </c>
       <c r="G344" t="n">
         <v>1</v>
@@ -12725,10 +12695,10 @@
         <v>344</v>
       </c>
       <c r="E345" t="s">
-        <v>671</v>
+        <v>661</v>
       </c>
       <c r="F345" t="s">
-        <v>672</v>
+        <v>662</v>
       </c>
       <c r="G345" t="n">
         <v>3</v>
@@ -12754,10 +12724,10 @@
         <v>345</v>
       </c>
       <c r="E346" t="s">
-        <v>673</v>
+        <v>663</v>
       </c>
       <c r="F346" t="s">
-        <v>674</v>
+        <v>664</v>
       </c>
       <c r="G346" t="n">
         <v>4</v>
@@ -12783,10 +12753,10 @@
         <v>346</v>
       </c>
       <c r="E347" t="s">
-        <v>675</v>
+        <v>665</v>
       </c>
       <c r="F347" t="s">
-        <v>676</v>
+        <v>666</v>
       </c>
       <c r="G347" t="n">
         <v>1</v>
@@ -12812,10 +12782,10 @@
         <v>347</v>
       </c>
       <c r="E348" t="s">
-        <v>677</v>
+        <v>667</v>
       </c>
       <c r="F348" t="s">
-        <v>678</v>
+        <v>668</v>
       </c>
       <c r="G348" t="n">
         <v>1</v>
@@ -12841,10 +12811,10 @@
         <v>348</v>
       </c>
       <c r="E349" t="s">
-        <v>679</v>
+        <v>669</v>
       </c>
       <c r="F349" t="s">
-        <v>680</v>
+        <v>670</v>
       </c>
       <c r="G349" t="n">
         <v>1</v>
@@ -12870,10 +12840,10 @@
         <v>349</v>
       </c>
       <c r="E350" t="s">
-        <v>681</v>
+        <v>671</v>
       </c>
       <c r="F350" t="s">
-        <v>682</v>
+        <v>672</v>
       </c>
       <c r="G350" t="n">
         <v>2</v>
@@ -12899,10 +12869,10 @@
         <v>350</v>
       </c>
       <c r="E351" t="s">
-        <v>683</v>
+        <v>673</v>
       </c>
       <c r="F351" t="s">
-        <v>684</v>
+        <v>674</v>
       </c>
       <c r="G351" t="n">
         <v>1</v>
@@ -12928,10 +12898,10 @@
         <v>351</v>
       </c>
       <c r="E352" t="s">
-        <v>685</v>
+        <v>675</v>
       </c>
       <c r="F352" t="s">
-        <v>686</v>
+        <v>676</v>
       </c>
       <c r="G352" t="n">
         <v>2</v>
@@ -12957,10 +12927,10 @@
         <v>352</v>
       </c>
       <c r="E353" t="s">
-        <v>687</v>
+        <v>677</v>
       </c>
       <c r="F353" t="s">
-        <v>688</v>
+        <v>678</v>
       </c>
       <c r="G353" t="n">
         <v>1</v>
@@ -12986,10 +12956,10 @@
         <v>353</v>
       </c>
       <c r="E354" t="s">
-        <v>689</v>
+        <v>679</v>
       </c>
       <c r="F354" t="s">
-        <v>690</v>
+        <v>680</v>
       </c>
       <c r="G354" t="n">
         <v>1</v>
@@ -13015,10 +12985,10 @@
         <v>354</v>
       </c>
       <c r="E355" t="s">
-        <v>691</v>
+        <v>681</v>
       </c>
       <c r="F355" t="s">
-        <v>692</v>
+        <v>682</v>
       </c>
       <c r="G355" t="n">
         <v>1</v>
@@ -13044,10 +13014,10 @@
         <v>355</v>
       </c>
       <c r="E356" t="s">
-        <v>693</v>
+        <v>683</v>
       </c>
       <c r="F356" t="s">
-        <v>694</v>
+        <v>684</v>
       </c>
       <c r="G356" t="n">
         <v>2</v>
@@ -13073,10 +13043,10 @@
         <v>356</v>
       </c>
       <c r="E357" t="s">
-        <v>695</v>
+        <v>685</v>
       </c>
       <c r="F357" t="s">
-        <v>696</v>
+        <v>686</v>
       </c>
       <c r="G357" t="n">
         <v>1</v>
@@ -13102,10 +13072,10 @@
         <v>357</v>
       </c>
       <c r="E358" t="s">
-        <v>697</v>
+        <v>687</v>
       </c>
       <c r="F358" t="s">
-        <v>698</v>
+        <v>688</v>
       </c>
       <c r="G358" t="n">
         <v>1</v>
@@ -13131,10 +13101,10 @@
         <v>358</v>
       </c>
       <c r="E359" t="s">
-        <v>699</v>
+        <v>689</v>
       </c>
       <c r="F359" t="s">
-        <v>700</v>
+        <v>690</v>
       </c>
       <c r="G359" t="n">
         <v>1</v>
@@ -13160,10 +13130,10 @@
         <v>359</v>
       </c>
       <c r="E360" t="s">
-        <v>701</v>
+        <v>691</v>
       </c>
       <c r="F360" t="s">
-        <v>702</v>
+        <v>692</v>
       </c>
       <c r="G360" t="n">
         <v>1</v>
@@ -13189,10 +13159,10 @@
         <v>360</v>
       </c>
       <c r="E361" t="s">
-        <v>703</v>
+        <v>693</v>
       </c>
       <c r="F361" t="s">
-        <v>704</v>
+        <v>694</v>
       </c>
       <c r="G361" t="n">
         <v>1</v>
@@ -13218,10 +13188,10 @@
         <v>361</v>
       </c>
       <c r="E362" t="s">
-        <v>705</v>
+        <v>695</v>
       </c>
       <c r="F362" t="s">
-        <v>706</v>
+        <v>696</v>
       </c>
       <c r="G362" t="n">
         <v>2</v>
@@ -13247,10 +13217,10 @@
         <v>362</v>
       </c>
       <c r="E363" t="s">
-        <v>707</v>
+        <v>697</v>
       </c>
       <c r="F363" t="s">
-        <v>708</v>
+        <v>698</v>
       </c>
       <c r="G363" t="n">
         <v>1</v>
@@ -13276,10 +13246,10 @@
         <v>363</v>
       </c>
       <c r="E364" t="s">
-        <v>709</v>
+        <v>699</v>
       </c>
       <c r="F364" t="s">
-        <v>710</v>
+        <v>700</v>
       </c>
       <c r="G364" t="n">
         <v>1</v>
@@ -13305,10 +13275,10 @@
         <v>364</v>
       </c>
       <c r="E365" t="s">
-        <v>711</v>
+        <v>701</v>
       </c>
       <c r="F365" t="s">
-        <v>712</v>
+        <v>702</v>
       </c>
       <c r="G365" t="n">
         <v>2</v>
@@ -13334,10 +13304,10 @@
         <v>365</v>
       </c>
       <c r="E366" t="s">
-        <v>713</v>
+        <v>703</v>
       </c>
       <c r="F366" t="s">
-        <v>714</v>
+        <v>704</v>
       </c>
       <c r="G366" t="n">
         <v>2</v>
@@ -13363,10 +13333,10 @@
         <v>366</v>
       </c>
       <c r="E367" t="s">
-        <v>715</v>
+        <v>705</v>
       </c>
       <c r="F367" t="s">
-        <v>716</v>
+        <v>706</v>
       </c>
       <c r="G367" t="n">
         <v>1</v>
@@ -13392,10 +13362,10 @@
         <v>367</v>
       </c>
       <c r="E368" t="s">
-        <v>717</v>
+        <v>707</v>
       </c>
       <c r="F368" t="s">
-        <v>718</v>
+        <v>708</v>
       </c>
       <c r="G368" t="n">
         <v>2</v>
@@ -13421,10 +13391,10 @@
         <v>368</v>
       </c>
       <c r="E369" t="s">
-        <v>719</v>
+        <v>709</v>
       </c>
       <c r="F369" t="s">
-        <v>720</v>
+        <v>710</v>
       </c>
       <c r="G369" t="n">
         <v>1</v>
@@ -13450,10 +13420,10 @@
         <v>369</v>
       </c>
       <c r="E370" t="s">
-        <v>721</v>
+        <v>711</v>
       </c>
       <c r="F370" t="s">
-        <v>722</v>
+        <v>712</v>
       </c>
       <c r="G370" t="n">
         <v>2</v>
@@ -13479,10 +13449,10 @@
         <v>370</v>
       </c>
       <c r="E371" t="s">
-        <v>723</v>
+        <v>713</v>
       </c>
       <c r="F371" t="s">
-        <v>724</v>
+        <v>714</v>
       </c>
       <c r="G371" t="n">
         <v>1</v>
@@ -13508,10 +13478,10 @@
         <v>371</v>
       </c>
       <c r="E372" t="s">
-        <v>725</v>
+        <v>715</v>
       </c>
       <c r="F372" t="s">
-        <v>726</v>
+        <v>716</v>
       </c>
       <c r="G372" t="n">
         <v>2</v>
@@ -13537,10 +13507,10 @@
         <v>372</v>
       </c>
       <c r="E373" t="s">
-        <v>727</v>
+        <v>717</v>
       </c>
       <c r="F373" t="s">
-        <v>728</v>
+        <v>718</v>
       </c>
       <c r="G373" t="n">
         <v>2</v>
@@ -13566,10 +13536,10 @@
         <v>373</v>
       </c>
       <c r="E374" t="s">
-        <v>729</v>
+        <v>719</v>
       </c>
       <c r="F374" t="s">
-        <v>730</v>
+        <v>720</v>
       </c>
       <c r="G374" t="n">
         <v>2</v>
@@ -13595,10 +13565,10 @@
         <v>374</v>
       </c>
       <c r="E375" t="s">
-        <v>731</v>
+        <v>721</v>
       </c>
       <c r="F375" t="s">
-        <v>732</v>
+        <v>722</v>
       </c>
       <c r="G375" t="n">
         <v>1</v>
@@ -13624,10 +13594,10 @@
         <v>375</v>
       </c>
       <c r="E376" t="s">
-        <v>733</v>
+        <v>723</v>
       </c>
       <c r="F376" t="s">
-        <v>734</v>
+        <v>724</v>
       </c>
       <c r="G376" t="n">
         <v>1</v>
@@ -13653,10 +13623,10 @@
         <v>376</v>
       </c>
       <c r="E377" t="s">
-        <v>735</v>
+        <v>725</v>
       </c>
       <c r="F377" t="s">
-        <v>736</v>
+        <v>726</v>
       </c>
       <c r="G377" t="n">
         <v>2</v>
@@ -13682,10 +13652,10 @@
         <v>377</v>
       </c>
       <c r="E378" t="s">
-        <v>737</v>
+        <v>727</v>
       </c>
       <c r="F378" t="s">
-        <v>738</v>
+        <v>728</v>
       </c>
       <c r="G378" t="n">
         <v>2</v>
@@ -13711,10 +13681,10 @@
         <v>378</v>
       </c>
       <c r="E379" t="s">
-        <v>739</v>
+        <v>729</v>
       </c>
       <c r="F379" t="s">
-        <v>740</v>
+        <v>730</v>
       </c>
       <c r="G379" t="n">
         <v>1</v>
@@ -13740,10 +13710,10 @@
         <v>379</v>
       </c>
       <c r="E380" t="s">
-        <v>741</v>
+        <v>731</v>
       </c>
       <c r="F380" t="s">
-        <v>742</v>
+        <v>732</v>
       </c>
       <c r="G380" t="n">
         <v>2</v>
@@ -13769,10 +13739,10 @@
         <v>380</v>
       </c>
       <c r="E381" t="s">
-        <v>743</v>
+        <v>733</v>
       </c>
       <c r="F381" t="s">
-        <v>744</v>
+        <v>734</v>
       </c>
       <c r="G381" t="n">
         <v>1</v>
@@ -13798,10 +13768,10 @@
         <v>381</v>
       </c>
       <c r="E382" t="s">
-        <v>745</v>
+        <v>735</v>
       </c>
       <c r="F382" t="s">
-        <v>746</v>
+        <v>736</v>
       </c>
       <c r="G382" t="n">
         <v>2</v>
@@ -13827,10 +13797,10 @@
         <v>382</v>
       </c>
       <c r="E383" t="s">
-        <v>747</v>
+        <v>737</v>
       </c>
       <c r="F383" t="s">
-        <v>748</v>
+        <v>738</v>
       </c>
       <c r="G383" t="n">
         <v>1</v>
@@ -13856,10 +13826,10 @@
         <v>383</v>
       </c>
       <c r="E384" t="s">
-        <v>749</v>
+        <v>739</v>
       </c>
       <c r="F384" t="s">
-        <v>750</v>
+        <v>740</v>
       </c>
       <c r="G384" t="n">
         <v>2</v>
@@ -13885,10 +13855,10 @@
         <v>384</v>
       </c>
       <c r="E385" t="s">
-        <v>751</v>
+        <v>741</v>
       </c>
       <c r="F385" t="s">
-        <v>752</v>
+        <v>742</v>
       </c>
       <c r="G385" t="n">
         <v>1</v>
@@ -13914,10 +13884,10 @@
         <v>385</v>
       </c>
       <c r="E386" t="s">
-        <v>753</v>
+        <v>743</v>
       </c>
       <c r="F386" t="s">
-        <v>754</v>
+        <v>744</v>
       </c>
       <c r="G386" t="n">
         <v>1</v>
@@ -13943,10 +13913,10 @@
         <v>386</v>
       </c>
       <c r="E387" t="s">
-        <v>755</v>
+        <v>745</v>
       </c>
       <c r="F387" t="s">
-        <v>756</v>
+        <v>746</v>
       </c>
       <c r="G387" t="n">
         <v>1</v>
@@ -13972,10 +13942,10 @@
         <v>387</v>
       </c>
       <c r="E388" t="s">
-        <v>757</v>
+        <v>747</v>
       </c>
       <c r="F388" t="s">
-        <v>758</v>
+        <v>748</v>
       </c>
       <c r="G388" t="n">
         <v>1</v>
@@ -14001,10 +13971,10 @@
         <v>388</v>
       </c>
       <c r="E389" t="s">
-        <v>759</v>
+        <v>749</v>
       </c>
       <c r="F389" t="s">
-        <v>760</v>
+        <v>750</v>
       </c>
       <c r="G389" t="n">
         <v>1</v>
@@ -14030,10 +14000,10 @@
         <v>389</v>
       </c>
       <c r="E390" t="s">
-        <v>761</v>
+        <v>751</v>
       </c>
       <c r="F390" t="s">
-        <v>762</v>
+        <v>752</v>
       </c>
       <c r="G390" t="n">
         <v>1</v>
@@ -14059,10 +14029,10 @@
         <v>390</v>
       </c>
       <c r="E391" t="s">
-        <v>763</v>
+        <v>753</v>
       </c>
       <c r="F391" t="s">
-        <v>764</v>
+        <v>754</v>
       </c>
       <c r="G391" t="n">
         <v>2</v>
@@ -14088,10 +14058,10 @@
         <v>391</v>
       </c>
       <c r="E392" t="s">
-        <v>765</v>
+        <v>755</v>
       </c>
       <c r="F392" t="s">
-        <v>766</v>
+        <v>756</v>
       </c>
       <c r="G392" t="n">
         <v>1</v>
@@ -14117,10 +14087,10 @@
         <v>392</v>
       </c>
       <c r="E393" t="s">
-        <v>767</v>
+        <v>757</v>
       </c>
       <c r="F393" t="s">
-        <v>768</v>
+        <v>758</v>
       </c>
       <c r="G393" t="n">
         <v>1</v>
@@ -14146,10 +14116,10 @@
         <v>393</v>
       </c>
       <c r="E394" t="s">
-        <v>769</v>
+        <v>759</v>
       </c>
       <c r="F394" t="s">
-        <v>770</v>
+        <v>760</v>
       </c>
       <c r="G394" t="n">
         <v>2</v>
@@ -14175,10 +14145,10 @@
         <v>394</v>
       </c>
       <c r="E395" t="s">
-        <v>771</v>
+        <v>761</v>
       </c>
       <c r="F395" t="s">
-        <v>772</v>
+        <v>762</v>
       </c>
       <c r="G395" t="n">
         <v>1</v>
@@ -14204,10 +14174,10 @@
         <v>395</v>
       </c>
       <c r="E396" t="s">
-        <v>773</v>
+        <v>763</v>
       </c>
       <c r="F396" t="s">
-        <v>774</v>
+        <v>764</v>
       </c>
       <c r="G396" t="n">
         <v>2</v>
@@ -14233,10 +14203,10 @@
         <v>396</v>
       </c>
       <c r="E397" t="s">
-        <v>775</v>
+        <v>765</v>
       </c>
       <c r="F397" t="s">
-        <v>776</v>
+        <v>766</v>
       </c>
       <c r="G397" t="n">
         <v>1</v>
@@ -14262,10 +14232,10 @@
         <v>397</v>
       </c>
       <c r="E398" t="s">
-        <v>777</v>
+        <v>767</v>
       </c>
       <c r="F398" t="s">
-        <v>778</v>
+        <v>768</v>
       </c>
       <c r="G398" t="n">
         <v>1</v>
@@ -14291,10 +14261,10 @@
         <v>398</v>
       </c>
       <c r="E399" t="s">
-        <v>779</v>
+        <v>769</v>
       </c>
       <c r="F399" t="s">
-        <v>780</v>
+        <v>770</v>
       </c>
       <c r="G399" t="n">
         <v>3</v>
@@ -14320,10 +14290,10 @@
         <v>399</v>
       </c>
       <c r="E400" t="s">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="F400" t="s">
-        <v>782</v>
+        <v>772</v>
       </c>
       <c r="G400" t="n">
         <v>1</v>
@@ -14349,10 +14319,10 @@
         <v>400</v>
       </c>
       <c r="E401" t="s">
-        <v>783</v>
+        <v>773</v>
       </c>
       <c r="F401" t="s">
-        <v>784</v>
+        <v>774</v>
       </c>
       <c r="G401" t="n">
         <v>1</v>
@@ -14378,10 +14348,10 @@
         <v>401</v>
       </c>
       <c r="E402" t="s">
-        <v>785</v>
+        <v>775</v>
       </c>
       <c r="F402" t="s">
-        <v>786</v>
+        <v>776</v>
       </c>
       <c r="G402" t="n">
         <v>1</v>
@@ -14407,10 +14377,10 @@
         <v>402</v>
       </c>
       <c r="E403" t="s">
-        <v>787</v>
+        <v>777</v>
       </c>
       <c r="F403" t="s">
-        <v>788</v>
+        <v>778</v>
       </c>
       <c r="G403" t="n">
         <v>2</v>

--- a/xlsx/战争_intext.xlsx
+++ b/xlsx/战争_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="789">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="785">
   <si>
     <t>战争</t>
   </si>
@@ -29,7 +29,7 @@
     <t>军事</t>
   </si>
   <si>
-    <t>政策_政策_政治_战争</t>
+    <t>体育运动_体育运动_奥林匹克运动会_战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E5%89%8D%E6%88%98%E4%BA%89</t>
@@ -1280,22 +1280,10 @@
     <t>蒙古征戰</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E6%B0%91%E5%9B%BD</t>
-  </si>
-  <si>
-    <t>中华民国</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E6%B8%85%E5%B8%9D%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>大清帝國</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9C%8B</t>
-  </si>
-  <si>
-    <t>中華人民共和國</t>
+    <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B</t>
+  </si>
+  <si>
+    <t>中國</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%91%E4%BB%A3</t>
@@ -2730,7 +2718,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I403"/>
+  <dimension ref="A1:I401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9019,7 +9007,7 @@
         <v>422</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -9048,7 +9036,7 @@
         <v>424</v>
       </c>
       <c r="G218" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -9106,7 +9094,7 @@
         <v>428</v>
       </c>
       <c r="G220" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -9280,7 +9268,7 @@
         <v>440</v>
       </c>
       <c r="G226" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H226" t="s">
         <v>4</v>
@@ -9338,7 +9326,7 @@
         <v>444</v>
       </c>
       <c r="G228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -9541,7 +9529,7 @@
         <v>458</v>
       </c>
       <c r="G235" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H235" t="s">
         <v>4</v>
@@ -9599,7 +9587,7 @@
         <v>462</v>
       </c>
       <c r="G237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H237" t="s">
         <v>4</v>
@@ -9831,7 +9819,7 @@
         <v>478</v>
       </c>
       <c r="G245" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H245" t="s">
         <v>4</v>
@@ -9860,7 +9848,7 @@
         <v>480</v>
       </c>
       <c r="G246" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H246" t="s">
         <v>4</v>
@@ -9883,13 +9871,13 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>481</v>
+        <v>13</v>
       </c>
       <c r="F247" t="s">
-        <v>482</v>
+        <v>14</v>
       </c>
       <c r="G247" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="H247" t="s">
         <v>4</v>
@@ -9912,10 +9900,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="F248" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G248" t="n">
         <v>3</v>
@@ -9941,10 +9929,10 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="F249" t="s">
-        <v>14</v>
+        <v>140</v>
       </c>
       <c r="G249" t="n">
         <v>1</v>
@@ -9970,13 +9958,13 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="F250" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="G250" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H250" t="s">
         <v>4</v>
@@ -9999,13 +9987,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>139</v>
+        <v>485</v>
       </c>
       <c r="F251" t="s">
-        <v>140</v>
+        <v>486</v>
       </c>
       <c r="G251" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -10034,7 +10022,7 @@
         <v>488</v>
       </c>
       <c r="G252" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H252" t="s">
         <v>4</v>
@@ -10063,7 +10051,7 @@
         <v>490</v>
       </c>
       <c r="G253" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H253" t="s">
         <v>4</v>
@@ -10202,13 +10190,13 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>499</v>
+        <v>19</v>
       </c>
       <c r="F258" t="s">
-        <v>500</v>
+        <v>20</v>
       </c>
       <c r="G258" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H258" t="s">
         <v>4</v>
@@ -10231,10 +10219,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F259" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -10260,13 +10248,13 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>19</v>
+        <v>501</v>
       </c>
       <c r="F260" t="s">
-        <v>20</v>
+        <v>502</v>
       </c>
       <c r="G260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H260" t="s">
         <v>4</v>
@@ -10324,7 +10312,7 @@
         <v>506</v>
       </c>
       <c r="G262" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H262" t="s">
         <v>4</v>
@@ -10353,7 +10341,7 @@
         <v>508</v>
       </c>
       <c r="G263" t="n">
-        <v>1</v>
+        <v>33</v>
       </c>
       <c r="H263" t="s">
         <v>4</v>
@@ -10382,7 +10370,7 @@
         <v>510</v>
       </c>
       <c r="G264" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -10411,7 +10399,7 @@
         <v>512</v>
       </c>
       <c r="G265" t="n">
-        <v>33</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -10440,7 +10428,7 @@
         <v>514</v>
       </c>
       <c r="G266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -10788,7 +10776,7 @@
         <v>538</v>
       </c>
       <c r="G278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H278" t="s">
         <v>4</v>
@@ -10846,7 +10834,7 @@
         <v>542</v>
       </c>
       <c r="G280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -12035,7 +12023,7 @@
         <v>624</v>
       </c>
       <c r="G321" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H321" t="s">
         <v>4</v>
@@ -12093,7 +12081,7 @@
         <v>628</v>
       </c>
       <c r="G323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H323" t="s">
         <v>4</v>
@@ -12151,7 +12139,7 @@
         <v>632</v>
       </c>
       <c r="G325" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H325" t="s">
         <v>4</v>
@@ -12209,7 +12197,7 @@
         <v>636</v>
       </c>
       <c r="G327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H327" t="s">
         <v>4</v>
@@ -12238,7 +12226,7 @@
         <v>638</v>
       </c>
       <c r="G328" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H328" t="s">
         <v>4</v>
@@ -12267,7 +12255,7 @@
         <v>640</v>
       </c>
       <c r="G329" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H329" t="s">
         <v>4</v>
@@ -12296,7 +12284,7 @@
         <v>642</v>
       </c>
       <c r="G330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H330" t="s">
         <v>4</v>
@@ -12325,7 +12313,7 @@
         <v>644</v>
       </c>
       <c r="G331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H331" t="s">
         <v>4</v>
@@ -12441,7 +12429,7 @@
         <v>652</v>
       </c>
       <c r="G335" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H335" t="s">
         <v>4</v>
@@ -12499,7 +12487,7 @@
         <v>656</v>
       </c>
       <c r="G337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H337" t="s">
         <v>4</v>
@@ -12673,7 +12661,7 @@
         <v>668</v>
       </c>
       <c r="G343" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H343" t="s">
         <v>4</v>
@@ -12702,7 +12690,7 @@
         <v>670</v>
       </c>
       <c r="G344" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H344" t="s">
         <v>4</v>
@@ -12731,7 +12719,7 @@
         <v>672</v>
       </c>
       <c r="G345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H345" t="s">
         <v>4</v>
@@ -12760,7 +12748,7 @@
         <v>674</v>
       </c>
       <c r="G346" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H346" t="s">
         <v>4</v>
@@ -12818,7 +12806,7 @@
         <v>678</v>
       </c>
       <c r="G348" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H348" t="s">
         <v>4</v>
@@ -12934,7 +12922,7 @@
         <v>686</v>
       </c>
       <c r="G352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H352" t="s">
         <v>4</v>
@@ -12992,7 +12980,7 @@
         <v>690</v>
       </c>
       <c r="G354" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H354" t="s">
         <v>4</v>
@@ -13050,7 +13038,7 @@
         <v>694</v>
       </c>
       <c r="G356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H356" t="s">
         <v>4</v>
@@ -13166,7 +13154,7 @@
         <v>702</v>
       </c>
       <c r="G360" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H360" t="s">
         <v>4</v>
@@ -13224,7 +13212,7 @@
         <v>706</v>
       </c>
       <c r="G362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H362" t="s">
         <v>4</v>
@@ -13253,7 +13241,7 @@
         <v>708</v>
       </c>
       <c r="G363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H363" t="s">
         <v>4</v>
@@ -13282,7 +13270,7 @@
         <v>710</v>
       </c>
       <c r="G364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H364" t="s">
         <v>4</v>
@@ -13311,7 +13299,7 @@
         <v>712</v>
       </c>
       <c r="G365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H365" t="s">
         <v>4</v>
@@ -13485,7 +13473,7 @@
         <v>724</v>
       </c>
       <c r="G371" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H371" t="s">
         <v>4</v>
@@ -13543,7 +13531,7 @@
         <v>728</v>
       </c>
       <c r="G373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H373" t="s">
         <v>4</v>
@@ -13572,7 +13560,7 @@
         <v>730</v>
       </c>
       <c r="G374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H374" t="s">
         <v>4</v>
@@ -13601,7 +13589,7 @@
         <v>732</v>
       </c>
       <c r="G375" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H375" t="s">
         <v>4</v>
@@ -13630,7 +13618,7 @@
         <v>734</v>
       </c>
       <c r="G376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H376" t="s">
         <v>4</v>
@@ -13659,7 +13647,7 @@
         <v>736</v>
       </c>
       <c r="G377" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H377" t="s">
         <v>4</v>
@@ -13862,7 +13850,7 @@
         <v>750</v>
       </c>
       <c r="G384" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H384" t="s">
         <v>4</v>
@@ -14007,7 +13995,7 @@
         <v>760</v>
       </c>
       <c r="G389" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H389" t="s">
         <v>4</v>
@@ -14065,7 +14053,7 @@
         <v>764</v>
       </c>
       <c r="G391" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H391" t="s">
         <v>4</v>
@@ -14094,7 +14082,7 @@
         <v>766</v>
       </c>
       <c r="G392" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H392" t="s">
         <v>4</v>
@@ -14210,7 +14198,7 @@
         <v>774</v>
       </c>
       <c r="G396" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H396" t="s">
         <v>4</v>
@@ -14239,7 +14227,7 @@
         <v>776</v>
       </c>
       <c r="G397" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H397" t="s">
         <v>4</v>
@@ -14297,7 +14285,7 @@
         <v>780</v>
       </c>
       <c r="G399" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H399" t="s">
         <v>4</v>
@@ -14355,70 +14343,12 @@
         <v>784</v>
       </c>
       <c r="G401" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H401" t="s">
         <v>4</v>
       </c>
       <c r="I401" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9">
-      <c r="A402" s="1" t="n">
-        <v>400</v>
-      </c>
-      <c r="B402" t="s">
-        <v>0</v>
-      </c>
-      <c r="C402" t="s">
-        <v>1</v>
-      </c>
-      <c r="D402" t="n">
-        <v>401</v>
-      </c>
-      <c r="E402" t="s">
-        <v>785</v>
-      </c>
-      <c r="F402" t="s">
-        <v>786</v>
-      </c>
-      <c r="G402" t="n">
-        <v>1</v>
-      </c>
-      <c r="H402" t="s">
-        <v>4</v>
-      </c>
-      <c r="I402" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9">
-      <c r="A403" s="1" t="n">
-        <v>401</v>
-      </c>
-      <c r="B403" t="s">
-        <v>0</v>
-      </c>
-      <c r="C403" t="s">
-        <v>1</v>
-      </c>
-      <c r="D403" t="n">
-        <v>402</v>
-      </c>
-      <c r="E403" t="s">
-        <v>787</v>
-      </c>
-      <c r="F403" t="s">
-        <v>788</v>
-      </c>
-      <c r="G403" t="n">
-        <v>2</v>
-      </c>
-      <c r="H403" t="s">
-        <v>4</v>
-      </c>
-      <c r="I403" t="n">
         <v>3</v>
       </c>
     </row>
